--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/海天味业/分析结果/投入资本计算表1.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/海天味业/分析结果/投入资本计算表1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13080" activeTab="3"/>
+    <workbookView windowWidth="27240" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="资产表分析" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="192">
   <si>
     <t>名称</t>
   </si>
@@ -163,6 +163,13 @@
   </si>
   <si>
     <t>现象</t>
+  </si>
+  <si>
+    <t>固定资产变化情况</t>
+  </si>
+  <si>
+    <t>流动资产变化情况
+(原材料、人工、存货、应收账款、应付账款)</t>
   </si>
   <si>
     <t>保险合同准备金</t>
@@ -1734,10 +1741,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1776,7 +1783,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1790,25 +1797,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1827,38 +1827,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1867,8 +1835,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1881,9 +1850,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,6 +1880,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1912,8 +1910,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2036,7 +2043,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2048,13 +2067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,13 +2079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,61 +2097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2156,13 +2115,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2174,25 +2163,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2204,7 +2199,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2332,8 +2339,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2343,6 +2350,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2376,207 +2433,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2931,8 +2938,14 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3259,14 +3272,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BK102"/>
+  <dimension ref="A1:BM102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BK3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG15" sqref="AG15"/>
+      <selection pane="bottomRight" activeCell="BM1" sqref="BM1:BM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3313,9 +3326,11 @@
     <col min="61" max="61" width="22.5" style="71" customWidth="1"/>
     <col min="62" max="62" width="20.375" style="96" customWidth="1"/>
     <col min="63" max="63" width="98.5576923076923" customWidth="1"/>
+    <col min="64" max="64" width="20" customWidth="1"/>
+    <col min="65" max="65" width="47.5961538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:65">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3475,8 +3490,14 @@
       <c r="BK1" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" ht="41" customHeight="1" spans="1:63">
+      <c r="BL1" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM1" s="120" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="41" customHeight="1" spans="1:65">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="51"/>
@@ -3488,56 +3509,56 @@
       <c r="I2" s="104"/>
       <c r="J2" s="103"/>
       <c r="K2" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S2" s="24"/>
       <c r="T2" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W2" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X2" s="26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y2" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z2" s="26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA2" s="26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="24"/>
       <c r="AD2" s="31"/>
@@ -3571,13 +3592,15 @@
       <c r="BF2" s="45"/>
       <c r="BG2" s="8"/>
       <c r="BH2" s="51"/>
-      <c r="BI2" s="118"/>
+      <c r="BI2" s="119"/>
       <c r="BJ2" s="50"/>
       <c r="BK2" s="7"/>
+      <c r="BL2" s="118"/>
+      <c r="BM2" s="118"/>
     </row>
     <row r="3" spans="1:63">
       <c r="A3" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="7">
         <v>2022</v>
@@ -3587,7 +3610,7 @@
         <v>368853000000</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="9">
         <v>4633833787</v>
@@ -3735,7 +3758,7 @@
         <v>2.33893054475199</v>
       </c>
       <c r="BK3" s="56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:63">
@@ -3748,7 +3771,7 @@
         <v>442784000000</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="9">
         <v>4212576170</v>
@@ -3905,7 +3928,7 @@
         <v>649838000000</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" s="9">
         <v>3240443208</v>
@@ -4060,7 +4083,7 @@
         <v>290317000000</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="9">
         <v>2700369340</v>
@@ -4215,7 +4238,7 @@
         <v>185785000000</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9">
         <v>2700369340</v>
@@ -4370,7 +4393,7 @@
         <v>145325000000</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E8" s="9">
         <v>2701206700</v>
@@ -4527,7 +4550,7 @@
         <v>79336000000</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="9">
         <v>2704950700</v>
@@ -4682,7 +4705,7 @@
         <v>95666000000</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="9">
         <v>2706246000</v>
@@ -4837,7 +4860,7 @@
         <v>60068000000</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="9">
         <v>1503580000</v>
@@ -5288,7 +5311,7 @@
     </row>
     <row r="14" spans="1:63">
       <c r="A14" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="10">
         <v>2022</v>
@@ -5298,7 +5321,7 @@
         <v>28957000000</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -5438,7 +5461,7 @@
         <v>30248000000</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -5576,7 +5599,7 @@
         <v>53096000000</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -5714,7 +5737,7 @@
         <v>31348000000</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -5852,7 +5875,7 @@
         <v>23469000000</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -5990,7 +6013,7 @@
         <v>19725000000</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -6128,7 +6151,7 @@
         <v>11217000000</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -6264,7 +6287,7 @@
         <v>12467000000</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -6400,7 +6423,7 @@
         <v>8269000000</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -6542,7 +6565,7 @@
         <v>9058000000</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -6807,7 +6830,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:63">
       <c r="A25" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2">
         <v>2022</v>
@@ -6817,7 +6840,7 @@
         <v>20062000000</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -6946,7 +6969,7 @@
         <v>19235000000</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -7073,7 +7096,7 @@
         <v>24883000000</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -7198,7 +7221,7 @@
         <v>9904000000</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -7325,7 +7348,7 @@
         <v>5017000000</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -7452,7 +7475,7 @@
         <v>5864000000</v>
       </c>
       <c r="D30" s="97" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -7575,7 +7598,7 @@
         <v>7195000000</v>
       </c>
       <c r="D31" s="97" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -8110,7 +8133,7 @@
     </row>
     <row r="36" customFormat="1" spans="1:63">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2">
         <v>2022</v>
@@ -8120,7 +8143,7 @@
         <v>20969000000</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -8254,7 +8277,7 @@
         <v>20220000000</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -8388,7 +8411,7 @@
         <v>51848000000</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -8518,7 +8541,7 @@
         <v>18551000000</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -8645,7 +8668,7 @@
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="97" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8770,7 +8793,7 @@
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="97" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8895,7 +8918,7 @@
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="97" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -9415,7 +9438,7 @@
     </row>
     <row r="47" spans="1:63">
       <c r="A47" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="10">
         <v>2022</v>
@@ -10154,7 +10177,7 @@
     </row>
     <row r="58" spans="1:63">
       <c r="A58" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="10">
         <v>2022</v>
@@ -10164,7 +10187,7 @@
         <v>5322000000</v>
       </c>
       <c r="D58" s="97" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
@@ -10236,7 +10259,7 @@
         <v>7903000000</v>
       </c>
       <c r="D59" s="97" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -10308,7 +10331,7 @@
         <v>7811000000</v>
       </c>
       <c r="D60" s="97" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -10380,7 +10403,7 @@
         <v>4124000000</v>
       </c>
       <c r="D61" s="97" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
@@ -10452,7 +10475,7 @@
         <v>4147000000</v>
       </c>
       <c r="D62" s="97" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -10524,7 +10547,7 @@
         <v>8133000000</v>
       </c>
       <c r="D63" s="97" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
@@ -10596,7 +10619,7 @@
         <v>8110000000</v>
       </c>
       <c r="D64" s="97" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -10668,7 +10691,7 @@
         <v>9354000000</v>
       </c>
       <c r="D65" s="97" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
@@ -10740,7 +10763,7 @@
         <v>5451000000</v>
       </c>
       <c r="D66" s="97" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -10812,7 +10835,7 @@
         <v>4382000000</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -10943,7 +10966,7 @@
     </row>
     <row r="69" spans="1:63">
       <c r="A69" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B69" s="10">
         <v>2022</v>
@@ -11682,7 +11705,7 @@
     </row>
     <row r="80" spans="1:63">
       <c r="A80" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80" s="10">
         <v>2022</v>
@@ -11947,7 +11970,7 @@
       <c r="BG83" s="9"/>
       <c r="BH83" s="9"/>
       <c r="BI83" s="40"/>
-      <c r="BJ83" s="119"/>
+      <c r="BJ83" s="121"/>
       <c r="BK83" s="53"/>
     </row>
     <row r="84" spans="1:63">
@@ -12014,7 +12037,7 @@
       <c r="BG84" s="9"/>
       <c r="BH84" s="9"/>
       <c r="BI84" s="40"/>
-      <c r="BJ84" s="119"/>
+      <c r="BJ84" s="121"/>
       <c r="BK84" s="53"/>
     </row>
     <row r="85" spans="1:63">
@@ -12081,7 +12104,7 @@
       <c r="BG85" s="9"/>
       <c r="BH85" s="9"/>
       <c r="BI85" s="40"/>
-      <c r="BJ85" s="119"/>
+      <c r="BJ85" s="121"/>
       <c r="BK85" s="53"/>
     </row>
     <row r="86" spans="1:63">
@@ -12148,7 +12171,7 @@
       <c r="BG86" s="9"/>
       <c r="BH86" s="9"/>
       <c r="BI86" s="40"/>
-      <c r="BJ86" s="119"/>
+      <c r="BJ86" s="121"/>
       <c r="BK86" s="53"/>
     </row>
     <row r="87" spans="1:63">
@@ -12215,7 +12238,7 @@
       <c r="BG87" s="9"/>
       <c r="BH87" s="9"/>
       <c r="BI87" s="40"/>
-      <c r="BJ87" s="119"/>
+      <c r="BJ87" s="121"/>
       <c r="BK87" s="53"/>
     </row>
     <row r="88" spans="1:63">
@@ -12282,7 +12305,7 @@
       <c r="BG88" s="9"/>
       <c r="BH88" s="9"/>
       <c r="BI88" s="40"/>
-      <c r="BJ88" s="119"/>
+      <c r="BJ88" s="121"/>
       <c r="BK88" s="53"/>
     </row>
     <row r="89" spans="1:63">
@@ -12349,7 +12372,7 @@
       <c r="BG89" s="9"/>
       <c r="BH89" s="9"/>
       <c r="BI89" s="40"/>
-      <c r="BJ89" s="119"/>
+      <c r="BJ89" s="121"/>
       <c r="BK89" s="53"/>
     </row>
     <row r="90" spans="1:63">
@@ -12416,12 +12439,12 @@
       <c r="BG90" s="9"/>
       <c r="BH90" s="9"/>
       <c r="BI90" s="40"/>
-      <c r="BJ90" s="119"/>
+      <c r="BJ90" s="121"/>
       <c r="BK90" s="53"/>
     </row>
     <row r="91" spans="1:63">
       <c r="A91" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B91" s="10">
         <v>2022</v>
@@ -12485,7 +12508,7 @@
       <c r="BG91" s="9"/>
       <c r="BH91" s="9"/>
       <c r="BI91" s="40"/>
-      <c r="BJ91" s="119"/>
+      <c r="BJ91" s="121"/>
       <c r="BK91" s="53"/>
     </row>
     <row r="92" spans="1:63">
@@ -12552,7 +12575,7 @@
       <c r="BG92" s="9"/>
       <c r="BH92" s="9"/>
       <c r="BI92" s="40"/>
-      <c r="BJ92" s="119"/>
+      <c r="BJ92" s="121"/>
       <c r="BK92" s="53"/>
     </row>
     <row r="93" spans="1:63">
@@ -12619,7 +12642,7 @@
       <c r="BG93" s="9"/>
       <c r="BH93" s="9"/>
       <c r="BI93" s="40"/>
-      <c r="BJ93" s="119"/>
+      <c r="BJ93" s="121"/>
       <c r="BK93" s="53"/>
     </row>
     <row r="94" spans="1:63">
@@ -12686,7 +12709,7 @@
       <c r="BG94" s="9"/>
       <c r="BH94" s="9"/>
       <c r="BI94" s="40"/>
-      <c r="BJ94" s="119"/>
+      <c r="BJ94" s="121"/>
       <c r="BK94" s="53"/>
     </row>
     <row r="95" spans="1:63">
@@ -12753,7 +12776,7 @@
       <c r="BG95" s="9"/>
       <c r="BH95" s="9"/>
       <c r="BI95" s="40"/>
-      <c r="BJ95" s="119"/>
+      <c r="BJ95" s="121"/>
       <c r="BK95" s="53"/>
     </row>
     <row r="96" spans="1:63">
@@ -12820,7 +12843,7 @@
       <c r="BG96" s="9"/>
       <c r="BH96" s="9"/>
       <c r="BI96" s="40"/>
-      <c r="BJ96" s="119"/>
+      <c r="BJ96" s="121"/>
       <c r="BK96" s="53"/>
     </row>
     <row r="97" spans="1:63">
@@ -12887,7 +12910,7 @@
       <c r="BG97" s="9"/>
       <c r="BH97" s="9"/>
       <c r="BI97" s="40"/>
-      <c r="BJ97" s="119"/>
+      <c r="BJ97" s="121"/>
       <c r="BK97" s="53"/>
     </row>
     <row r="98" spans="1:63">
@@ -12954,7 +12977,7 @@
       <c r="BG98" s="9"/>
       <c r="BH98" s="9"/>
       <c r="BI98" s="40"/>
-      <c r="BJ98" s="119"/>
+      <c r="BJ98" s="121"/>
       <c r="BK98" s="53"/>
     </row>
     <row r="99" spans="1:63">
@@ -13021,7 +13044,7 @@
       <c r="BG99" s="9"/>
       <c r="BH99" s="9"/>
       <c r="BI99" s="40"/>
-      <c r="BJ99" s="119"/>
+      <c r="BJ99" s="121"/>
       <c r="BK99" s="53"/>
     </row>
     <row r="100" spans="1:63">
@@ -13088,7 +13111,7 @@
       <c r="BG100" s="9"/>
       <c r="BH100" s="9"/>
       <c r="BI100" s="40"/>
-      <c r="BJ100" s="119"/>
+      <c r="BJ100" s="121"/>
       <c r="BK100" s="53"/>
     </row>
     <row r="101" spans="1:63">
@@ -13155,14 +13178,14 @@
       <c r="BG101" s="9"/>
       <c r="BH101" s="9"/>
       <c r="BI101" s="40"/>
-      <c r="BJ101" s="119"/>
+      <c r="BJ101" s="121"/>
       <c r="BK101" s="53"/>
     </row>
     <row r="102" spans="62:62">
-      <c r="BJ102" s="120"/>
+      <c r="BJ102" s="122"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="64">
     <mergeCell ref="K1:R1"/>
     <mergeCell ref="T1:AB1"/>
     <mergeCell ref="A1:A2"/>
@@ -13225,6 +13248,8 @@
     <mergeCell ref="BK25:BK35"/>
     <mergeCell ref="BK36:BK46"/>
     <mergeCell ref="BK47:BK57"/>
+    <mergeCell ref="BL1:BL2"/>
+    <mergeCell ref="BM1:BM2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -13298,25 +13323,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>42</v>
@@ -13328,13 +13353,13 @@
         <v>41</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P1" s="40"/>
       <c r="Q1" s="40"/>
@@ -13342,10 +13367,10 @@
       <c r="S1" s="40"/>
       <c r="T1" s="40"/>
       <c r="U1" s="40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
@@ -13360,7 +13385,7 @@
       <c r="AG1" s="9"/>
       <c r="AH1" s="9"/>
       <c r="AI1" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ1" s="40"/>
       <c r="AK1" s="40"/>
@@ -13373,7 +13398,7 @@
       <c r="AR1" s="40"/>
       <c r="AS1" s="9"/>
       <c r="AT1" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AU1" s="40"/>
       <c r="AV1" s="9"/>
@@ -13402,126 +13427,126 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="U2" s="40"/>
       <c r="V2" s="40"/>
       <c r="W2" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X2" s="84" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y2" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC2" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA2" s="84" t="s">
+      <c r="AJ2" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" s="86" t="s">
+      <c r="AK2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL2" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="AC2" s="86" t="s">
+      <c r="AM2" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="AD2" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE2" s="89" t="s">
+      <c r="AN2" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO2" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="AF2" s="89" t="s">
+      <c r="AP2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AG2" s="89" t="s">
+      <c r="AQ2" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AH2" s="40" t="s">
+      <c r="AR2" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AI2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AL2" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM2" s="40" t="s">
+      <c r="AU2" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="AN2" s="87" t="s">
+      <c r="AV2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW2" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX2" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY2" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ2" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB2" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC2" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="AO2" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ2" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR2" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU2" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW2" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX2" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY2" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ2" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB2" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC2" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:56">
@@ -13529,7 +13554,7 @@
         <v>2022</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="27">
         <v>25609651543.29</v>
@@ -15329,7 +15354,7 @@
         <v>2022</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="27">
         <v>5341040998.68</v>
@@ -16672,7 +16697,7 @@
         <v>2022</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" s="27">
         <v>2436471672.19</v>
@@ -17927,7 +17952,7 @@
         <v>2022</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="27">
         <v>2690710152.71</v>
@@ -18981,13 +19006,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -19000,22 +19025,22 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="72" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H2" s="72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I2" s="76" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -19361,12 +19386,12 @@
   <sheetPr/>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -19387,37 +19412,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" s="62"/>
       <c r="E1" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="67" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10"/>
       <c r="B2" s="61"/>
       <c r="C2" s="61" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G2" s="67"/>
     </row>
     <row r="3" ht="409.5" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="61">
         <v>2022</v>
@@ -19425,13 +19450,13 @@
       <c r="C3" s="61"/>
       <c r="D3" s="63"/>
       <c r="E3" s="68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:6">
@@ -19442,10 +19467,10 @@
       <c r="C4" s="61"/>
       <c r="D4" s="64"/>
       <c r="E4" s="68" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:6">
@@ -19456,10 +19481,10 @@
       <c r="C5" s="61"/>
       <c r="D5" s="63"/>
       <c r="E5" s="68" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" ht="409.5" spans="1:6">
@@ -19470,10 +19495,10 @@
       <c r="C6" s="61"/>
       <c r="D6" s="63"/>
       <c r="E6" s="68" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:6">
@@ -19484,10 +19509,10 @@
       <c r="C7" s="61"/>
       <c r="D7" s="63"/>
       <c r="E7" s="68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" ht="409.5" spans="1:6">
@@ -19498,10 +19523,10 @@
       <c r="C8" s="61"/>
       <c r="D8" s="63"/>
       <c r="E8" s="68" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" ht="370" spans="1:6">
@@ -19512,10 +19537,10 @@
       <c r="C9" s="61"/>
       <c r="D9" s="63"/>
       <c r="E9" s="68" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" ht="387" spans="1:6">
@@ -19526,10 +19551,10 @@
       <c r="C10" s="61"/>
       <c r="D10" s="63"/>
       <c r="E10" s="68" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" ht="404" spans="1:6">
@@ -19540,10 +19565,10 @@
       <c r="C11" s="61"/>
       <c r="D11" s="63"/>
       <c r="E11" s="68" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="1:6">
@@ -19554,10 +19579,10 @@
       <c r="C12" s="61"/>
       <c r="D12" s="63"/>
       <c r="E12" s="68" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -19571,7 +19596,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:6">
       <c r="A14" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="61">
         <v>2022</v>
@@ -19683,17 +19708,17 @@
     </row>
     <row r="25" ht="409.5" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B25" s="61">
         <v>2022</v>
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="64" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" ht="409.5" spans="1:6">
@@ -19703,10 +19728,10 @@
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="64" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" ht="409.5" spans="1:6">
@@ -19716,10 +19741,10 @@
       </c>
       <c r="C27" s="61"/>
       <c r="D27" s="64" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" ht="409.5" spans="1:6">
@@ -19729,10 +19754,10 @@
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="64" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" ht="409.5" spans="1:6">
@@ -19742,10 +19767,10 @@
       </c>
       <c r="C29" s="61"/>
       <c r="D29" s="64" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" ht="409.5" spans="1:6">
@@ -19754,13 +19779,13 @@
         <v>2017</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="1:6">
@@ -19769,13 +19794,13 @@
         <v>2016</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -19816,17 +19841,17 @@
     </row>
     <row r="36" ht="409.5" spans="1:6">
       <c r="A36" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" s="61">
         <v>2022</v>
       </c>
       <c r="C36" s="61"/>
       <c r="D36" s="64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" ht="409.5" spans="1:6">
@@ -19836,10 +19861,10 @@
       </c>
       <c r="C37" s="61"/>
       <c r="D37" s="64" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" ht="409.5" spans="1:6">
@@ -19850,7 +19875,7 @@
       <c r="C38" s="61"/>
       <c r="D38" s="63"/>
       <c r="F38" s="69" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" ht="409.5" spans="1:6">
@@ -19862,7 +19887,7 @@
       <c r="D39" s="63"/>
       <c r="E39" s="68"/>
       <c r="F39" s="69" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -19930,7 +19955,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="61">
         <v>2022</v>
@@ -20031,7 +20056,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="61">
         <v>2022</v>
@@ -20132,7 +20157,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B69" s="61">
         <v>2022</v>
@@ -20233,7 +20258,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80" s="61">
         <v>2022</v>
@@ -20334,7 +20359,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B91" s="61">
         <v>2022</v>
@@ -20540,7 +20565,7 @@
         <v>39</v>
       </c>
       <c r="AH1" s="44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AI1" s="45" t="s">
         <v>42</v>
@@ -20549,13 +20574,13 @@
         <v>43</v>
       </c>
       <c r="AK1" s="46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AL1" s="46"/>
       <c r="AM1" s="46"/>
       <c r="AN1" s="46"/>
       <c r="AO1" s="48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AP1" s="49" t="s">
         <v>44</v>
@@ -20599,56 +20624,56 @@
       <c r="E2" s="6"/>
       <c r="F2" s="17"/>
       <c r="G2" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U2" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V2" s="26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W2" s="26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X2" s="26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y2" s="24"/>
       <c r="Z2" s="31"/>
@@ -20663,16 +20688,16 @@
       <c r="AI2" s="45"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AL2" s="47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AM2" s="47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AN2" s="46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AO2" s="48"/>
       <c r="AP2" s="51"/>
@@ -20689,7 +20714,7 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="7">
         <v>2022</v>
@@ -20824,7 +20849,7 @@
         <v>19285851426.62</v>
       </c>
       <c r="AZ3" s="56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:52">
@@ -22145,7 +22170,7 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B14" s="2">
         <v>2022</v>
@@ -23060,7 +23085,7 @@
     </row>
     <row r="25" spans="1:43">
       <c r="A25" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2">
         <v>2022</v>
@@ -23909,7 +23934,7 @@
     </row>
     <row r="36" spans="1:43">
       <c r="A36" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B36" s="7">
         <v>2022</v>
@@ -24740,7 +24765,7 @@
     </row>
     <row r="47" spans="1:43">
       <c r="A47" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B47" s="7">
         <v>2022</v>
@@ -25683,7 +25708,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B58" s="2">
         <v>2022</v>
@@ -26591,7 +26616,7 @@
     </row>
     <row r="69" spans="1:43">
       <c r="A69" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B69" s="7">
         <v>2022</v>
@@ -27436,7 +27461,7 @@
     </row>
     <row r="80" spans="1:43">
       <c r="A80" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B80" s="7">
         <v>2022</v>
@@ -28295,7 +28320,7 @@
     </row>
     <row r="91" spans="1:43">
       <c r="A91" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B91" s="2">
         <v>2022</v>
@@ -29213,28 +29238,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/海天味业/分析结果/投入资本计算表1.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/海天味业/分析结果/投入资本计算表1.xlsx
@@ -13366,11 +13366,11 @@
   <dimension ref="A1:BW46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
